--- a/Money/Executive_English_Now/class-attendance-monthly_8.xlsx
+++ b/Money/Executive_English_Now/class-attendance-monthly_8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068"/>
   </bookViews>
   <sheets>
     <sheet name="Advanced" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Teacher</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>August</t>
+  </si>
+  <si>
+    <t>Felipe</t>
   </si>
 </sst>
 </file>
@@ -826,72 +829,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1561,8 +1564,8 @@
   </sheetPr>
   <dimension ref="B1:AM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -1582,28 +1585,28 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46"/>
@@ -1617,48 +1620,48 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="47"/>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="51" t="s">
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -1672,87 +1675,87 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="62" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="52" t="s">
+      <c r="Z3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="63">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="61">
         <v>2017</v>
       </c>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="68" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="54" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>Tu</v>
@@ -1877,7 +1880,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v>Th</v>
       </c>
-      <c r="AI6" s="55"/>
+      <c r="AI6" s="49"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -2012,7 +2015,7 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v>42978</v>
       </c>
-      <c r="AI7" s="56"/>
+      <c r="AI7" s="50"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2072,7 +2075,9 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="J9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
@@ -2099,7 +2104,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="42">
         <f t="shared" ref="AI9:AI27" si="1">IF(C9="","", COUNTA(D9:AH9))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="5"/>
     </row>
@@ -2118,7 +2123,9 @@
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="J10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
@@ -2145,7 +2152,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10" s="5"/>
     </row>
@@ -2864,10 +2871,10 @@
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="40" t="str">
         <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
         <v/>
@@ -2892,9 +2899,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="J28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="K28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -2994,45 +3001,45 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="61"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="55"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
@@ -3111,6 +3118,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D29:AH29"/>
@@ -3121,12 +3134,6 @@
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:AH7">
     <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
@@ -3164,8 +3171,8 @@
   </sheetPr>
   <dimension ref="B1:AM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -3185,28 +3192,28 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46"/>
@@ -3220,48 +3227,48 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="47"/>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="51" t="s">
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -3275,87 +3282,87 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="62" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="52" t="s">
+      <c r="Z3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="63">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="61">
         <v>2017</v>
       </c>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="68" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="54" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>Tu</v>
@@ -3480,7 +3487,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v>Th</v>
       </c>
-      <c r="AI6" s="55"/>
+      <c r="AI6" s="49"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -3615,7 +3622,7 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v>42978</v>
       </c>
-      <c r="AI7" s="56"/>
+      <c r="AI7" s="50"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3634,7 +3641,9 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="K8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -3660,7 +3669,7 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="42">
         <f>IF(C8="","", COUNTA(D8:AH8))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ8" s="5"/>
     </row>
@@ -3682,7 +3691,9 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="K9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
@@ -3708,7 +3719,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="42">
         <f t="shared" ref="AI9:AI27" si="1">IF(C9="","", COUNTA(D9:AH9))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ9" s="5"/>
     </row>
@@ -3728,7 +3739,9 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="K10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
@@ -3754,7 +3767,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10" s="5"/>
     </row>
@@ -3850,7 +3863,9 @@
       <c r="B13" s="35">
         <v>6</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -3858,7 +3873,9 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="K13" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
@@ -3882,9 +3899,9 @@
       <c r="AF13" s="22"/>
       <c r="AG13" s="22"/>
       <c r="AH13" s="23"/>
-      <c r="AI13" s="42" t="str">
+      <c r="AI13" s="42">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AJ13" s="5"/>
     </row>
@@ -4477,10 +4494,10 @@
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="40">
         <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
         <v>1</v>
@@ -4509,9 +4526,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="K28" s="41">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="L28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -4607,45 +4624,45 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="61"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="55"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
@@ -4724,6 +4741,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="D29:AH29"/>
     <mergeCell ref="B28:C28"/>
@@ -4733,13 +4757,6 @@
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D7:AH7">

--- a/Money/Executive_English_Now/class-attendance-monthly_8.xlsx
+++ b/Money/Executive_English_Now/class-attendance-monthly_8.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Teacher</t>
   </si>
@@ -161,7 +161,7 @@
     <t>August</t>
   </si>
   <si>
-    <t>Felipe</t>
+    <t>Felipe Medeiros</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1564,7 @@
   </sheetPr>
   <dimension ref="B1:AM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -2079,7 +2079,9 @@
         <v>23</v>
       </c>
       <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="L9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
@@ -2104,7 +2106,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="42">
         <f t="shared" ref="AI9:AI27" si="1">IF(C9="","", COUNTA(D9:AH9))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ9" s="5"/>
     </row>
@@ -2907,9 +2909,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="L28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="M28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -3001,7 +3003,7 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
@@ -3172,7 +3174,7 @@
   <dimension ref="B1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -3694,7 +3696,9 @@
       <c r="K9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="22"/>
+      <c r="L9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
@@ -3719,7 +3723,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="42">
         <f t="shared" ref="AI9:AI27" si="1">IF(C9="","", COUNTA(D9:AH9))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ9" s="5"/>
     </row>
@@ -3743,7 +3747,9 @@
         <v>23</v>
       </c>
       <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="M10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -3767,7 +3773,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="42">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ10" s="5"/>
     </row>
@@ -3876,7 +3882,9 @@
       <c r="K13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="22"/>
+      <c r="L13" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
@@ -3901,7 +3909,7 @@
       <c r="AH13" s="23"/>
       <c r="AI13" s="42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ13" s="5"/>
     </row>
@@ -4530,13 +4538,13 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="L28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -4624,7 +4632,7 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">

--- a/Money/Executive_English_Now/class-attendance-monthly_8.xlsx
+++ b/Money/Executive_English_Now/class-attendance-monthly_8.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>Teacher</t>
   </si>
@@ -1564,8 +1564,8 @@
   </sheetPr>
   <dimension ref="B1:AM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2083,7 +2083,9 @@
         <v>23</v>
       </c>
       <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="N9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
@@ -2106,7 +2108,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="42">
         <f t="shared" ref="AI9:AI27" si="1">IF(C9="","", COUNTA(D9:AH9))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ9" s="5"/>
     </row>
@@ -2138,10 +2140,14 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
+      <c r="U10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
+      <c r="X10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
@@ -2154,7 +2160,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="42">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ10" s="5"/>
     </row>
@@ -2917,9 +2923,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="N28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -2945,9 +2951,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="U28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="V28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -2957,9 +2963,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="X28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Y28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -3003,7 +3009,7 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
@@ -3174,7 +3180,7 @@
   <dimension ref="B1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -3659,7 +3665,9 @@
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
+      <c r="Y8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="Z8" s="22"/>
       <c r="AA8" s="22"/>
       <c r="AB8" s="22"/>
@@ -3671,7 +3679,7 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="42">
         <f>IF(C8="","", COUNTA(D8:AH8))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" s="5"/>
     </row>
@@ -3705,8 +3713,12 @@
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="S9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
@@ -3723,7 +3735,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="42">
         <f t="shared" ref="AI9:AI27" si="1">IF(C9="","", COUNTA(D9:AH9))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ9" s="5"/>
     </row>
@@ -3849,7 +3861,9 @@
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
       <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
+      <c r="Y12" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="Z12" s="22"/>
       <c r="AA12" s="22"/>
       <c r="AB12" s="22"/>
@@ -3861,7 +3875,7 @@
       <c r="AH12" s="23"/>
       <c r="AI12" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="5"/>
     </row>
@@ -3917,7 +3931,9 @@
       <c r="B14" s="35">
         <v>7</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -3934,7 +3950,9 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+      <c r="T14" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
@@ -3949,9 +3967,9 @@
       <c r="AF14" s="22"/>
       <c r="AG14" s="22"/>
       <c r="AH14" s="23"/>
-      <c r="AI14" s="42" t="str">
+      <c r="AI14" s="42">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AJ14" s="5"/>
     </row>
@@ -4566,13 +4584,13 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="T28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="S28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="U28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -4590,9 +4608,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Y28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="Y28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Z28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -4632,7 +4650,7 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">

--- a/Money/Executive_English_Now/class-attendance-monthly_8.xlsx
+++ b/Money/Executive_English_Now/class-attendance-monthly_8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Advanced" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>Teacher</t>
   </si>
@@ -829,47 +829,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -888,13 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1564,8 +1564,8 @@
   </sheetPr>
   <dimension ref="B1:AM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -1585,28 +1585,28 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46"/>
@@ -1620,48 +1620,48 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="47"/>
-      <c r="Z2" s="59" t="s">
+      <c r="Z2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="56" t="s">
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -1675,87 +1675,87 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="59" t="s">
+      <c r="Z3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61">
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="63">
         <v>2017</v>
       </c>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="48" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="54" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>Tu</v>
@@ -1880,7 +1880,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v>Th</v>
       </c>
-      <c r="AI6" s="49"/>
+      <c r="AI6" s="55"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -2015,7 +2015,7 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v>42978</v>
       </c>
-      <c r="AI7" s="50"/>
+      <c r="AI7" s="56"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2097,7 +2097,9 @@
       <c r="W9" s="22"/>
       <c r="X9" s="22"/>
       <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
+      <c r="Z9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
@@ -2108,7 +2110,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="42">
         <f t="shared" ref="AI9:AI27" si="1">IF(C9="","", COUNTA(D9:AH9))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ9" s="5"/>
     </row>
@@ -2151,7 +2153,9 @@
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
+      <c r="AB10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AC10" s="22"/>
       <c r="AD10" s="22"/>
       <c r="AE10" s="22"/>
@@ -2160,7 +2164,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="42">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ10" s="5"/>
     </row>
@@ -2879,10 +2883,10 @@
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="40" t="str">
         <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
         <v/>
@@ -2971,17 +2975,17 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Z28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="Z28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA28" s="41" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AB28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="AB28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AC28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -3009,45 +3013,45 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="55"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="61"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
@@ -3126,12 +3130,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D29:AH29"/>
@@ -3142,6 +3140,12 @@
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:AH7">
     <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
@@ -3179,8 +3183,8 @@
   </sheetPr>
   <dimension ref="B1:AM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -3200,28 +3204,28 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46"/>
@@ -3235,48 +3239,48 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="47"/>
-      <c r="Z2" s="59" t="s">
+      <c r="Z2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="56" t="s">
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -3290,87 +3294,87 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="59" t="s">
+      <c r="Z3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61">
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="63">
         <v>2017</v>
       </c>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="48" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="54" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>Tu</v>
@@ -3495,7 +3499,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v>Th</v>
       </c>
-      <c r="AI6" s="49"/>
+      <c r="AI6" s="55"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -3630,7 +3634,7 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v>42978</v>
       </c>
-      <c r="AI7" s="50"/>
+      <c r="AI7" s="56"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3775,7 +3779,9 @@
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
+      <c r="AA10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AB10" s="22"/>
       <c r="AC10" s="22"/>
       <c r="AD10" s="22"/>
@@ -3785,7 +3791,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="42">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ10" s="5"/>
     </row>
@@ -4520,10 +4526,10 @@
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="40">
         <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
         <v>1</v>
@@ -4616,9 +4622,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AA28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="AA28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AB28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -4650,45 +4656,45 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="55"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="61"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
@@ -4767,13 +4773,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="D29:AH29"/>
     <mergeCell ref="B28:C28"/>
@@ -4783,6 +4782,13 @@
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D7:AH7">

--- a/Money/Executive_English_Now/class-attendance-monthly_8.xlsx
+++ b/Money/Executive_English_Now/class-attendance-monthly_8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068"/>
   </bookViews>
   <sheets>
     <sheet name="Advanced" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>Teacher</t>
   </si>
@@ -829,72 +829,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1564,8 +1564,8 @@
   </sheetPr>
   <dimension ref="B1:AM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -1585,28 +1585,28 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46"/>
@@ -1620,48 +1620,48 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="47"/>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="51" t="s">
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -1675,87 +1675,87 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="62" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="52" t="s">
+      <c r="Z3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="63">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="61">
         <v>2017</v>
       </c>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="68" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="54" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>Tu</v>
@@ -1880,7 +1880,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v>Th</v>
       </c>
-      <c r="AI6" s="55"/>
+      <c r="AI6" s="49"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -2015,7 +2015,7 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v>42978</v>
       </c>
-      <c r="AI7" s="56"/>
+      <c r="AI7" s="50"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2052,13 +2052,15 @@
       <c r="AB8" s="22"/>
       <c r="AC8" s="22"/>
       <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
+      <c r="AE8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AF8" s="22"/>
       <c r="AG8" s="22"/>
       <c r="AH8" s="23"/>
       <c r="AI8" s="42">
         <f>IF(C8="","", COUNTA(D8:AH8))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="5"/>
     </row>
@@ -2883,10 +2885,10 @@
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="40" t="str">
         <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
         <v/>
@@ -2995,9 +2997,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AE28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="AE28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AF28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -3013,45 +3015,45 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="61"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="55"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
@@ -3130,6 +3132,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D29:AH29"/>
@@ -3140,12 +3148,6 @@
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:AH7">
     <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
@@ -3183,8 +3185,8 @@
   </sheetPr>
   <dimension ref="B1:AM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI17" sqref="AI17"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -3204,28 +3206,28 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46"/>
@@ -3239,48 +3241,48 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="47"/>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="51" t="s">
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -3294,87 +3296,87 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="62" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="52" t="s">
+      <c r="Z3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="63">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="61">
         <v>2017</v>
       </c>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="68" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="54" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>Tu</v>
@@ -3499,7 +3501,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v>Th</v>
       </c>
-      <c r="AI6" s="55"/>
+      <c r="AI6" s="49"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -3634,7 +3636,7 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v>42978</v>
       </c>
-      <c r="AI7" s="56"/>
+      <c r="AI7" s="50"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3735,11 +3737,13 @@
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
+      <c r="AG9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AH9" s="23"/>
       <c r="AI9" s="42">
         <f t="shared" ref="AI9:AI27" si="1">IF(C9="","", COUNTA(D9:AH9))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ9" s="5"/>
     </row>
@@ -3876,12 +3880,14 @@
       <c r="AC12" s="22"/>
       <c r="AD12" s="22"/>
       <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
+      <c r="AF12" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AG12" s="22"/>
       <c r="AH12" s="23"/>
       <c r="AI12" s="42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ12" s="5"/>
     </row>
@@ -4526,10 +4532,10 @@
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="40">
         <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
         <v>1</v>
@@ -4642,13 +4648,13 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="AF28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AH28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -4656,45 +4662,45 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="61"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="55"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
@@ -4773,6 +4779,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="D29:AH29"/>
     <mergeCell ref="B28:C28"/>
@@ -4782,13 +4795,6 @@
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D7:AH7">
